--- a/tspi/ciclo-2/20105914.xlsx
+++ b/tspi/ciclo-2/20105914.xlsx
@@ -11,15 +11,12 @@
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -115,6 +112,54 @@
   </si>
   <si>
     <t>Reunión de equipo para analizar la versión final del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan del ciclo #2 de TSPi.</t>
+  </si>
+  <si>
+    <t>Crear el esquema del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Crear la agenda para la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Prepararse para presentar al equipo la herramienta RedMine.</t>
+  </si>
+  <si>
+    <t>Elaborar la introducción del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Elaborar el fondo del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Elaborar el diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Documentar las tácticas y patrones a utilizar en el documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Elaborar el modelo físico de data de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Elaborar el diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el diagrama de la estructura de archivos del plug-in.</t>
+  </si>
+  <si>
+    <t>Elaborar la conclusión del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Cursar el tutorial básico de ruby.</t>
+  </si>
+  <si>
+    <t>Prepararse para presentar al equipo el framework Rails.</t>
+  </si>
+  <si>
+    <t>Mockup de la vista de la calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el reporte de cierre del ciclo #2 de TSPi.</t>
   </si>
 </sst>
 </file>
@@ -355,661 +400,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ganancias"/>
-      <sheetName val="tiempo"/>
-      <sheetName val="tareas"/>
-      <sheetName val="1"/>
-      <sheetName val="2"/>
-      <sheetName val="3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Nombre</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Criterio de entrada</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Criterio de salida</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Horas estimadas</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Semana estimada</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Team Leader</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Development Manager</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>Process and Quality Manager</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>Planning Manager</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>Support Manager</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>24</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Realizar el lanzamiento del ciclo #2 de TSPi.</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>5</v>
-          </cell>
-          <cell r="G2">
-            <v>4</v>
-          </cell>
-          <cell r="I2">
-            <v>1</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2">
-            <v>1</v>
-          </cell>
-          <cell r="L2">
-            <v>1</v>
-          </cell>
-          <cell r="M2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>25</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Definir la estrategía de desarrolo del ciclo #2 de TSPi.</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>5</v>
-          </cell>
-          <cell r="G3">
-            <v>4</v>
-          </cell>
-          <cell r="I3">
-            <v>1</v>
-          </cell>
-          <cell r="J3">
-            <v>1</v>
-          </cell>
-          <cell r="K3">
-            <v>1</v>
-          </cell>
-          <cell r="L3">
-            <v>1</v>
-          </cell>
-          <cell r="M3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>26</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Elaborar el plan del ciclo #2 de TSPi.</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>2</v>
-          </cell>
-          <cell r="G4">
-            <v>4</v>
-          </cell>
-          <cell r="L4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>27</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Crear el esquema del documento de arquitectura.</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0.5</v>
-          </cell>
-          <cell r="G5">
-            <v>4</v>
-          </cell>
-          <cell r="K5">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>28</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Reunión de equipo para analizar la versión final del documento de requerimientos.</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-          <cell r="E6">
-            <v>7.5</v>
-          </cell>
-          <cell r="G6">
-            <v>4</v>
-          </cell>
-          <cell r="I6">
-            <v>1.5</v>
-          </cell>
-          <cell r="J6">
-            <v>1.5</v>
-          </cell>
-          <cell r="K6">
-            <v>1.5</v>
-          </cell>
-          <cell r="L6">
-            <v>1.5</v>
-          </cell>
-          <cell r="M6">
-            <v>1.5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>29</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Crear la agenda para la reunión #3 con el cliente.</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>0.5</v>
-          </cell>
-          <cell r="G7">
-            <v>4</v>
-          </cell>
-          <cell r="L7">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>30</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Reunión #3 con el cliente.</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>2</v>
-          </cell>
-          <cell r="G8">
-            <v>4</v>
-          </cell>
-          <cell r="I8">
-            <v>1</v>
-          </cell>
-          <cell r="L8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>31</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Prepararse para presentar al equipo la herramienta RedMine.</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>3</v>
-          </cell>
-          <cell r="G9">
-            <v>4</v>
-          </cell>
-          <cell r="I9">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>32</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Presentar al equipo de la herramienta Redmine.</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>5</v>
-          </cell>
-          <cell r="G10">
-            <v>4</v>
-          </cell>
-          <cell r="I10">
-            <v>1</v>
-          </cell>
-          <cell r="J10">
-            <v>1</v>
-          </cell>
-          <cell r="K10">
-            <v>1</v>
-          </cell>
-          <cell r="L10">
-            <v>1</v>
-          </cell>
-          <cell r="M10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>33</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Elaborar la introducción del documento de arquitectura.</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0.5</v>
-          </cell>
-          <cell r="G11">
-            <v>4</v>
-          </cell>
-          <cell r="K11">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>34</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Elaborar el fondo del documento de arquitectura.</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-          <cell r="E12">
-            <v>1</v>
-          </cell>
-          <cell r="G12">
-            <v>4</v>
-          </cell>
-          <cell r="K12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>35</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Elaborar el diagrama de contexto de la arquitectura.</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-          <cell r="E13">
-            <v>3</v>
-          </cell>
-          <cell r="G13">
-            <v>4</v>
-          </cell>
-          <cell r="J13">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>36</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Documentar las tácticas y patrones a utilizar en el documento de arquitectura.</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-          <cell r="E14">
-            <v>1</v>
-          </cell>
-          <cell r="G14">
-            <v>5</v>
-          </cell>
-          <cell r="J14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>37</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Elaborar el modelo físico de data de la arquitectura.</v>
-          </cell>
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-          <cell r="E15">
-            <v>4</v>
-          </cell>
-          <cell r="G15">
-            <v>5</v>
-          </cell>
-          <cell r="I15">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>38</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>Elaborar el diagrama de flujo del algoritmo de calendarización.</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-          <cell r="E16">
-            <v>4</v>
-          </cell>
-          <cell r="G16">
-            <v>5</v>
-          </cell>
-          <cell r="K16">
-            <v>2</v>
-          </cell>
-          <cell r="M16">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>39</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Elaborar el diagrama de la estructura de archivos del plug-in.</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-          <cell r="E17">
-            <v>2</v>
-          </cell>
-          <cell r="G17">
-            <v>5</v>
-          </cell>
-          <cell r="M17">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>40</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>Elaborar la conclusión del documento de arquitectura.</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-          <cell r="E18">
-            <v>0.5</v>
-          </cell>
-          <cell r="G18">
-            <v>5</v>
-          </cell>
-          <cell r="K18">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>41</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>Cursar el tutorial básico de ruby.</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-          <cell r="E19">
-            <v>4</v>
-          </cell>
-          <cell r="G19">
-            <v>5</v>
-          </cell>
-          <cell r="I19">
-            <v>1</v>
-          </cell>
-          <cell r="J19">
-            <v>1</v>
-          </cell>
-          <cell r="K19">
-            <v>1</v>
-          </cell>
-          <cell r="L19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>42</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Prepararse para presentar al equipo el framework Rails.</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-          <cell r="E20">
-            <v>3</v>
-          </cell>
-          <cell r="G20">
-            <v>5</v>
-          </cell>
-          <cell r="M20">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>43</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Presentar al equipo el framework Rails.</v>
-          </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-          <cell r="E21">
-            <v>5</v>
-          </cell>
-          <cell r="G21">
-            <v>5</v>
-          </cell>
-          <cell r="I21">
-            <v>1</v>
-          </cell>
-          <cell r="J21">
-            <v>1</v>
-          </cell>
-          <cell r="K21">
-            <v>1</v>
-          </cell>
-          <cell r="L21">
-            <v>1</v>
-          </cell>
-          <cell r="M21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>44</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>Mockup de la vista de la calendarización.</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-          <cell r="E22">
-            <v>5</v>
-          </cell>
-          <cell r="G22">
-            <v>5</v>
-          </cell>
-          <cell r="J22">
-            <v>2.5</v>
-          </cell>
-          <cell r="L22">
-            <v>2.5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>45</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>Elaborar el reporte de cierre del ciclo #2 de TSPi.</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-          <cell r="E23">
-            <v>5</v>
-          </cell>
-          <cell r="G23">
-            <v>5</v>
-          </cell>
-          <cell r="I23">
-            <v>1</v>
-          </cell>
-          <cell r="J23">
-            <v>1</v>
-          </cell>
-          <cell r="K23">
-            <v>1</v>
-          </cell>
-          <cell r="L23">
-            <v>1</v>
-          </cell>
-          <cell r="M23">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1355,45 +745,35 @@
       <c r="A2" s="8">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="str">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Realizar el lanzamiento del ciclo #2 de TSPi.</v>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="9">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D2" s="9">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F2" s="11">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="4">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I2" s="4">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J2" s="4">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K2" s="4">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1</v>
       </c>
       <c r="M2" s="4"/>
@@ -2402,45 +1782,35 @@
       <c r="A3" s="8">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="str">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Definir la estrategía de desarrolo del ciclo #2 de TSPi.</v>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="9">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D3" s="9">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F3" s="11">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="4">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K3" s="4">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L3" s="4">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1</v>
       </c>
       <c r="M3" s="4"/>
@@ -3449,45 +2819,35 @@
       <c r="A4" s="8">
         <v>26</v>
       </c>
-      <c r="B4" s="9" t="str">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el plan del ciclo #2 de TSPi.</v>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="9">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D4" s="9">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>2</v>
       </c>
       <c r="F4" s="11">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="4">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>2</v>
       </c>
       <c r="L4" s="4">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M4" s="4"/>
@@ -4496,45 +3856,35 @@
       <c r="A5" s="8">
         <v>27</v>
       </c>
-      <c r="B5" s="9" t="str">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Crear el esquema del documento de arquitectura.</v>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="9">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D5" s="9">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E5" s="10">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>0.5</v>
       </c>
       <c r="F5" s="11">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="4">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0.5</v>
       </c>
       <c r="K5" s="4">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M5" s="4"/>
@@ -5543,45 +4893,35 @@
       <c r="A6" s="8">
         <v>28</v>
       </c>
-      <c r="B6" s="9" t="str">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Reunión de equipo para analizar la versión final del documento de requerimientos.</v>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="9">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D6" s="9">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>7.5</v>
       </c>
       <c r="F6" s="11">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="4">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1.5</v>
       </c>
       <c r="I6" s="4">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1.5</v>
       </c>
       <c r="J6" s="4">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1.5</v>
       </c>
       <c r="K6" s="4">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1.5</v>
       </c>
       <c r="L6" s="4">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1.5</v>
       </c>
       <c r="M6" s="4"/>
@@ -6590,45 +5930,35 @@
       <c r="A7" s="8">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="str">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Crear la agenda para la reunión #3 con el cliente.</v>
+      <c r="B7" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="9">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D7" s="9">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>0.5</v>
       </c>
       <c r="F7" s="11">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0.5</v>
       </c>
       <c r="L7" s="4">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M7" s="4"/>
@@ -7637,45 +6967,35 @@
       <c r="A8" s="8">
         <v>30</v>
       </c>
-      <c r="B8" s="9" t="str">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Reunión #3 con el cliente.</v>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="9">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D8" s="9">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E8" s="10">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>2</v>
       </c>
       <c r="F8" s="11">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="4">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L8" s="4">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M8" s="4"/>
@@ -8684,45 +8004,35 @@
       <c r="A9" s="8">
         <v>31</v>
       </c>
-      <c r="B9" s="9" t="str">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Prepararse para presentar al equipo la herramienta RedMine.</v>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="9">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D9" s="9">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E9" s="10">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>3</v>
       </c>
       <c r="F9" s="11">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="4">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>3</v>
       </c>
       <c r="I9" s="4">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M9" s="4"/>
@@ -9731,45 +9041,35 @@
       <c r="A10" s="8">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="str">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Presentar al equipo de la herramienta Redmine.</v>
+      <c r="B10" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="9">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D10" s="9">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E10" s="10">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F10" s="11">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="4">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J10" s="4">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L10" s="4">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1</v>
       </c>
       <c r="M10" s="4"/>
@@ -10778,45 +10078,35 @@
       <c r="A11" s="8">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="str">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar la introducción del documento de arquitectura.</v>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="9">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D11" s="9">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E11" s="10">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>0.5</v>
       </c>
       <c r="F11" s="11">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="4">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0.5</v>
       </c>
       <c r="K11" s="4">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M11" s="4"/>
@@ -11825,45 +11115,35 @@
       <c r="A12" s="8">
         <v>34</v>
       </c>
-      <c r="B12" s="9" t="str">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el fondo del documento de arquitectura.</v>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="9">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D12" s="9">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E12" s="10">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>1</v>
       </c>
       <c r="F12" s="11">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="4">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K12" s="4">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M12" s="4"/>
@@ -12872,45 +12152,35 @@
       <c r="A13" s="8">
         <v>35</v>
       </c>
-      <c r="B13" s="9" t="str">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el diagrama de contexto de la arquitectura.</v>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="9">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D13" s="9">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E13" s="10">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>3</v>
       </c>
       <c r="F13" s="11">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>3</v>
       </c>
       <c r="J13" s="4">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M13" s="4"/>
@@ -13919,45 +13189,35 @@
       <c r="A14" s="8">
         <v>36</v>
       </c>
-      <c r="B14" s="9" t="str">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Documentar las tácticas y patrones a utilizar en el documento de arquitectura.</v>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="9">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D14" s="9">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E14" s="10">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>1</v>
       </c>
       <c r="F14" s="11">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J14" s="4">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M14" s="4"/>
@@ -14966,45 +14226,35 @@
       <c r="A15" s="8">
         <v>37</v>
       </c>
-      <c r="B15" s="9" t="str">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el modelo físico de data de la arquitectura.</v>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="9">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D15" s="9">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E15" s="10">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>4</v>
       </c>
       <c r="F15" s="11">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M15" s="4"/>
@@ -16013,45 +15263,35 @@
       <c r="A16" s="8">
         <v>38</v>
       </c>
-      <c r="B16" s="9" t="str">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el diagrama de flujo del algoritmo de calendarización.</v>
+      <c r="B16" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="9">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D16" s="9">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E16" s="10">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>4</v>
       </c>
       <c r="F16" s="11">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>2</v>
       </c>
       <c r="K16" s="4">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>2</v>
       </c>
       <c r="M16" s="4"/>
@@ -17060,45 +16300,35 @@
       <c r="A17" s="8">
         <v>39</v>
       </c>
-      <c r="B17" s="9" t="str">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el diagrama de la estructura de archivos del plug-in.</v>
+      <c r="B17" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="9">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D17" s="9">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E17" s="10">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>2</v>
       </c>
       <c r="F17" s="11">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>2</v>
       </c>
       <c r="M17" s="4"/>
@@ -18107,44 +17337,34 @@
       <c r="A18" s="8">
         <v>40</v>
       </c>
-      <c r="B18" s="9" t="str">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar la conclusión del documento de arquitectura.</v>
+      <c r="B18" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="9">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D18" s="9">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E18" s="10">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>0.5</v>
       </c>
       <c r="F18" s="11">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H18" s="4">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0.5</v>
       </c>
       <c r="K18" s="4">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
     </row>
@@ -18152,44 +17372,34 @@
       <c r="A19" s="8">
         <v>41</v>
       </c>
-      <c r="B19" s="9" t="str">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Cursar el tutorial básico de ruby.</v>
+      <c r="B19" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="9">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D19" s="9">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E19" s="10">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>4</v>
       </c>
       <c r="F19" s="11">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H19" s="4">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I19" s="4">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K19" s="4">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L19" s="4">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
     </row>
@@ -18197,44 +17407,34 @@
       <c r="A20" s="8">
         <v>42</v>
       </c>
-      <c r="B20" s="9" t="str">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Prepararse para presentar al equipo el framework Rails.</v>
+      <c r="B20" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C20" s="9">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D20" s="9">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E20" s="10">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>3</v>
       </c>
       <c r="F20" s="11">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H20" s="4">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>3</v>
       </c>
     </row>
@@ -18242,44 +17442,34 @@
       <c r="A21" s="8">
         <v>43</v>
       </c>
-      <c r="B21" s="9" t="str">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Presentar al equipo el framework Rails.</v>
+      <c r="B21" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="9">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D21" s="9">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E21" s="10">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F21" s="11">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H21" s="4">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I21" s="4">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J21" s="4">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K21" s="4">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L21" s="4">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1</v>
       </c>
     </row>
@@ -18287,44 +17477,34 @@
       <c r="A22" s="8">
         <v>44</v>
       </c>
-      <c r="B22" s="9" t="str">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Mockup de la vista de la calendarización.</v>
+      <c r="B22" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="9">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D22" s="9">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E22" s="10">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F22" s="11">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H22" s="4">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>2.5</v>
       </c>
       <c r="J22" s="4">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>2.5</v>
       </c>
       <c r="L22" s="4">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
     </row>
@@ -18332,44 +17512,34 @@
       <c r="A23" s="8">
         <v>45</v>
       </c>
-      <c r="B23" s="9" t="str">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el reporte de cierre del ciclo #2 de TSPi.</v>
+      <c r="B23" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C23" s="9">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E23" s="10">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F23" s="11">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H23" s="4">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J23" s="4">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K23" s="4">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L23" s="4">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1</v>
       </c>
     </row>

--- a/tspi/ciclo-2/20105914.xlsx
+++ b/tspi/ciclo-2/20105914.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Elaborar el reporte de cierre del ciclo #2 de TSPi.</t>
+  </si>
+  <si>
+    <t>Physical Data Model</t>
   </si>
 </sst>
 </file>
@@ -689,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -17555,10 +17558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -17654,68 +17657,75 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4">
         <f>SUMIF(logt!$G:$G,A8,logt!$F:$F)/60</f>
-        <v>0.48333333333333334</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="C8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="12" customFormat="1">
-      <c r="A9" s="31">
-        <v>41</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>38</v>
       </c>
       <c r="B9" s="4">
         <f>SUMIF(logt!$G:$G,A9,logt!$F:$F)/60</f>
-        <v>1.25</v>
-      </c>
-      <c r="C9" s="31">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C9" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
-        <v>42</v>
+    <row r="10" spans="1:3" s="12" customFormat="1">
+      <c r="A10" s="31">
+        <v>41</v>
       </c>
       <c r="B10" s="4">
         <f>SUMIF(logt!$G:$G,A10,logt!$F:$F)/60</f>
-        <v>4.416666666666667</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
+        <v>1.25</v>
+      </c>
+      <c r="C10" s="31">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4">
         <f>SUMIF(logt!$G:$G,A11,logt!$F:$F)/60</f>
-        <v>1.3333333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="C11" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4">
         <f>SUMIF(logt!$G:$G,A12,logt!$F:$F)/60</f>
-        <v>0.95</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="4">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4">
+        <f>SUMIF(logt!$G:$G,A13,logt!$F:$F)/60</f>
+        <v>0.95</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
@@ -17742,6 +17752,11 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -17754,10 +17769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
@@ -17815,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="16">
-        <f t="shared" ref="F2:F13" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f t="shared" ref="F2:F14" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>30</v>
       </c>
       <c r="G2" s="4">
@@ -18043,92 +18058,110 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22">
-        <v>41938</v>
+        <v>41935</v>
       </c>
       <c r="B11" s="28">
         <v>5</v>
       </c>
       <c r="C11" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="30">
+        <v>10</v>
+      </c>
+      <c r="F11" s="24">
+        <v>110</v>
+      </c>
+      <c r="G11" s="4">
+        <v>37</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22">
+        <v>41938</v>
+      </c>
+      <c r="B12" s="28">
+        <v>5</v>
+      </c>
+      <c r="C12" s="23">
         <v>0.41805555555555557</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D12" s="23">
         <v>0.44027777777777777</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E12" s="30">
         <v>0</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F12" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <v>43</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="25.5">
-      <c r="A12" s="22">
+    <row r="13" spans="1:8" ht="25.5">
+      <c r="A13" s="22">
         <v>41938</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B13" s="28">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C13" s="23">
         <v>0.44166666666666665</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D13" s="23">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E13" s="30">
         <v>0</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>38</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="22">
+    <row r="14" spans="1:8">
+      <c r="A14" s="22">
         <v>41938</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B14" s="28">
         <v>5</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C14" s="23">
         <v>0.46527777777777773</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D14" s="23">
         <v>0.50486111111111109</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E14" s="30">
         <v>0</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F14" s="24">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>45</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="22"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
@@ -18138,34 +18171,34 @@
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="22"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="24"/>
+    <row r="17" spans="1:8">
+      <c r="F17" s="16"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="22"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="24"/>
+    <row r="18" spans="1:8" s="12" customFormat="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="F19" s="16"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="22"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="22"/>
@@ -18279,24 +18312,8 @@
       <c r="E34" s="30"/>
       <c r="F34" s="24"/>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="24"/>
-    </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="22"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="F38" s="16"/>
+      <c r="F36" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/tspi/ciclo-2/20105914.xlsx
+++ b/tspi/ciclo-2/20105914.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -163,6 +163,108 @@
   </si>
   <si>
     <t>Physical Data Model</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma INFO. El equipo llego a un acuerdo con los goles del ciclo 1 y la fecha en que serán entregados los reportes semanales.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente. Cada miembro del equipo ha leído el capítulo correspondiente a su rol.</t>
+  </si>
+  <si>
+    <t>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió actualizó el diseño conceptual del proyecto y completó la forma STRAT. El equipo actualizó el documento los riesgos y problemas.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado y actualizado el plan de un ciclo preevio.</t>
+  </si>
+  <si>
+    <t>Se completaron las formas TASK y SCHEDULE para el equipo y cada miembro de este. El equipo completo las formas SUMP, SUMQ y SUMS.</t>
+  </si>
+  <si>
+    <t>Se creó el esquema del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se ha creado la versión final del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se creó un documento el cuál especifica las tácticas y patrones que serán utilizados, así como también, las vistas y estilos que serán utilizadas para demostrar el uso de las tácticas y patrones.</t>
+  </si>
+  <si>
+    <t>Se ha creado la plantilla para las agendas de las reuniones con los cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se ha creado y enviado la agenda para la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó una presentación con los detalles de la arquitectura y el funcionamiento de RedMine.</t>
+  </si>
+  <si>
+    <t>Se ha creado una presentación con los detalles de la arquitectura y el funcionamiento de RedMine.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo creó un resumen con los detalles de la presentación.</t>
+  </si>
+  <si>
+    <t>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró la introducción del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura. Se ha elaborado la introducción del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró el fondo del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró el diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se documentaron las tácticas y patrones a utilizar.</t>
+  </si>
+  <si>
+    <t>Se creó el diagrama del modelo físico de data.</t>
+  </si>
+  <si>
+    <t>Se creó el diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Se creó el diagrama de la estructura de archivos.</t>
+  </si>
+  <si>
+    <t>Se han elaborado el fondo, documentado las tácticas y patrones, y diagramado las vistas de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró la conclusión del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo creó un resumen con los detalles del tutorial.</t>
+  </si>
+  <si>
+    <t>Se creó una presentación con los detalles de la arquitectura y el funcionamiento de Ruby on Rails.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo ha creado un resumen con los detalles del tutorial básico de ruby. Se ha creado una presentación con los detalles de la arquitectura y el funcionamiento de Ruby on Rails.</t>
+  </si>
+  <si>
+    <t>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista de la calendarización.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</t>
   </si>
 </sst>
 </file>
@@ -692,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -744,18 +846,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" ht="25.5">
+    <row r="2" spans="1:1013" ht="38.25">
       <c r="A2" s="8">
         <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
+      <c r="C2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E2" s="10">
         <v>5</v>
@@ -1781,18 +1883,18 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013" ht="25.5">
+    <row r="3" spans="1:1013" ht="38.25">
       <c r="A3" s="8">
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
+      <c r="C3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="10">
         <v>5</v>
@@ -2818,18 +2920,18 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013">
+    <row r="4" spans="1:1013" ht="38.25">
       <c r="A4" s="8">
         <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
+      <c r="C4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="10">
         <v>2</v>
@@ -3862,11 +3964,9 @@
       <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="E5" s="10">
         <v>0.5</v>
@@ -4899,11 +4999,11 @@
       <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E6" s="10">
         <v>7.5</v>
@@ -5929,18 +6029,18 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013" ht="25.5">
+    <row r="7" spans="1:1013" ht="38.25">
       <c r="A7" s="8">
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="E7" s="10">
         <v>0.5</v>
@@ -6966,18 +7066,18 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013">
+    <row r="8" spans="1:1013" ht="38.25">
       <c r="A8" s="8">
         <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
+      <c r="C8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
@@ -8010,11 +8110,9 @@
       <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="10">
         <v>3</v>
@@ -9040,18 +9138,18 @@
       <c r="ALX9" s="4"/>
       <c r="ALY9" s="4"/>
     </row>
-    <row r="10" spans="1:1013" ht="25.5">
+    <row r="10" spans="1:1013" ht="38.25">
       <c r="A10" s="8">
         <v>32</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
+      <c r="C10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="10">
         <v>5</v>
@@ -10077,18 +10175,18 @@
       <c r="ALX10" s="4"/>
       <c r="ALY10" s="4"/>
     </row>
-    <row r="11" spans="1:1013" ht="25.5">
+    <row r="11" spans="1:1013" ht="38.25">
       <c r="A11" s="8">
         <v>33</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
+      <c r="C11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E11" s="10">
         <v>0.5</v>
@@ -11114,18 +11212,18 @@
       <c r="ALX11" s="4"/>
       <c r="ALY11" s="4"/>
     </row>
-    <row r="12" spans="1:1013" ht="25.5">
+    <row r="12" spans="1:1013" ht="51">
       <c r="A12" s="8">
         <v>34</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
+      <c r="C12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -12151,18 +12249,18 @@
       <c r="ALX12" s="4"/>
       <c r="ALY12" s="4"/>
     </row>
-    <row r="13" spans="1:1013" ht="25.5">
+    <row r="13" spans="1:1013" ht="38.25">
       <c r="A13" s="8">
         <v>35</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
+      <c r="C13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="E13" s="10">
         <v>3</v>
@@ -13188,18 +13286,18 @@
       <c r="ALX13" s="4"/>
       <c r="ALY13" s="4"/>
     </row>
-    <row r="14" spans="1:1013" ht="25.5">
+    <row r="14" spans="1:1013" ht="38.25">
       <c r="A14" s="8">
         <v>36</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
+      <c r="C14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -14225,18 +14323,18 @@
       <c r="ALX14" s="4"/>
       <c r="ALY14" s="4"/>
     </row>
-    <row r="15" spans="1:1013" ht="25.5">
+    <row r="15" spans="1:1013" ht="38.25">
       <c r="A15" s="8">
         <v>37</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
+      <c r="C15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E15" s="10">
         <v>4</v>
@@ -15262,18 +15360,18 @@
       <c r="ALX15" s="4"/>
       <c r="ALY15" s="4"/>
     </row>
-    <row r="16" spans="1:1013" ht="25.5">
+    <row r="16" spans="1:1013" ht="38.25">
       <c r="A16" s="8">
         <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
+      <c r="C16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="E16" s="10">
         <v>4</v>
@@ -16299,18 +16397,18 @@
       <c r="ALX16" s="4"/>
       <c r="ALY16" s="4"/>
     </row>
-    <row r="17" spans="1:1013" ht="25.5">
+    <row r="17" spans="1:1013" ht="38.25">
       <c r="A17" s="8">
         <v>39</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
+      <c r="C17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="E17" s="10">
         <v>2</v>
@@ -17336,18 +17434,18 @@
       <c r="ALX17" s="4"/>
       <c r="ALY17" s="4"/>
     </row>
-    <row r="18" spans="1:1013" ht="25.5">
+    <row r="18" spans="1:1013" ht="38.25">
       <c r="A18" s="8">
         <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
+      <c r="C18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="E18" s="10">
         <v>0.5</v>
@@ -17371,18 +17469,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1013">
+    <row r="19" spans="1:1013" ht="25.5">
       <c r="A19" s="8">
         <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="E19" s="10">
         <v>4</v>
@@ -17413,11 +17509,9 @@
       <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E20" s="10">
         <v>3</v>
@@ -17441,18 +17535,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1013">
+    <row r="21" spans="1:1013" ht="51">
       <c r="A21" s="8">
         <v>43</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
+      <c r="C21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E21" s="10">
         <v>5</v>
@@ -17476,18 +17570,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1013">
+    <row r="22" spans="1:1013" ht="38.25">
       <c r="A22" s="8">
         <v>44</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
+      <c r="C22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E22" s="10">
         <v>5</v>
@@ -17511,18 +17605,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1013" ht="25.5">
+    <row r="23" spans="1:1013" ht="38.25">
       <c r="A23" s="8">
         <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
+      <c r="C23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="E23" s="10">
         <v>5</v>
